--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +93,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +122,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,13 +154,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,10 +183,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20 % - Farve3" xfId="3" builtinId="38"/>
     <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
@@ -455,23 +470,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -536,7 +551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
         <v>8</v>
@@ -557,7 +572,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
@@ -580,7 +595,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>3</v>
@@ -601,7 +616,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
@@ -622,14 +637,14 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -643,17 +658,17 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>

--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Time table</t>
   </si>
@@ -51,13 +51,49 @@
   </si>
   <si>
     <t>Rapport</t>
+  </si>
+  <si>
+    <t>Asynkron subscription php</t>
+  </si>
+  <si>
+    <t>Opdatér sider efter topic value fra PLC</t>
+  </si>
+  <si>
+    <t>Kommando fra Hmi til Robot</t>
+  </si>
+  <si>
+    <t>Bruger - levels</t>
+  </si>
+  <si>
+    <t>Lav nye recepter</t>
+  </si>
+  <si>
+    <t>Opdatér enkelte værdier adjustment</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>2. Iteration</t>
+  </si>
+  <si>
+    <t>Samle JS og PHP kode</t>
+  </si>
+  <si>
+    <t>Hjemmeside ændres efter skærm opløsning</t>
+  </si>
+  <si>
+    <t>Robot kontrol gennem PLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,15 +129,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,11 +155,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -153,15 +189,336 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -171,8 +528,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -180,15 +535,65 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="20 % - Farve2" xfId="4" builtinId="34"/>
     <cellStyle name="20 % - Farve3" xfId="3" builtinId="38"/>
+    <cellStyle name="20 % - Farve4" xfId="5" builtinId="42"/>
     <cellStyle name="God" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
@@ -468,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -494,190 +899,651 @@
         <f>36</f>
         <v>36</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <f>37</f>
         <v>37</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="10">
         <f>38</f>
         <v>38</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="10">
         <f>39</f>
         <v>39</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <f>40</f>
         <v>40</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="10">
         <f>41</f>
         <v>41</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="10">
         <f>42</f>
         <v>42</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="10">
         <f>43</f>
         <v>43</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="10">
         <f>44</f>
         <v>44</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="10">
         <f>45</f>
         <v>45</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="10">
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="10">
         <f>47</f>
         <v>47</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="10">
         <f>48</f>
         <v>48</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="10">
         <f>49</f>
         <v>49</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="10">
         <f>50</f>
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Time table</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Bruger - levels</t>
   </si>
   <si>
-    <t>Lav nye recepter</t>
-  </si>
-  <si>
     <t>Opdatér enkelte værdier adjustment</t>
   </si>
   <si>
@@ -87,6 +84,21 @@
   </si>
   <si>
     <t>Robot kontrol gennem PLC</t>
+  </si>
+  <si>
+    <t>Opsæt interface på raspberry pi</t>
+  </si>
+  <si>
+    <t>3. Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mulighed for at lave nye recepter </t>
+  </si>
+  <si>
+    <t>Start robot automatisk fra HMI</t>
+  </si>
+  <si>
+    <t>Acknowledge alarm fra HMI</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -500,13 +512,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -518,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -567,7 +606,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -578,9 +616,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -588,6 +624,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Farve2" xfId="4" builtinId="34"/>
@@ -873,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,17 +1013,17 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -1009,7 +1065,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="17"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="42"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="20"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1051,9 +1107,9 @@
       <c r="E8" s="19"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="26"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="26"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1085,8 +1141,8 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
-        <v>17</v>
+      <c r="B10" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>9</v>
@@ -1096,9 +1152,9 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
@@ -1119,7 +1175,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="36"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="34"/>
       <c r="M11" s="35"/>
       <c r="N11" s="31"/>
@@ -1140,7 +1196,7 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="33"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="34"/>
       <c r="M12" s="35"/>
       <c r="N12" s="31"/>
@@ -1149,17 +1205,17 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29"/>
-      <c r="C13" s="45" t="s">
-        <v>18</v>
+      <c r="C13" s="42" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="44"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
@@ -1172,15 +1228,15 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29"/>
-      <c r="C14" s="45" t="s">
-        <v>19</v>
+      <c r="C14" s="42" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="41"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
@@ -1191,66 +1247,72 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1267,29 +1329,31 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="C20" s="46" t="s">
-        <v>20</v>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1299,18 +1363,18 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
+      <c r="C21" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1321,17 +1385,17 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="58"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>13</v>
+      <c r="C22" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1342,16 +1406,16 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="8"/>
@@ -1363,16 +1427,18 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1382,16 +1448,18 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="45"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1401,18 +1469,16 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="45"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1431,9 +1497,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1452,7 +1516,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1471,7 +1535,7 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1490,7 +1554,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1509,7 +1573,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1528,7 +1592,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1545,6 +1609,44 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Time table</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Acknowledge alarm fra HMI</t>
+  </si>
+  <si>
+    <t>Database tabel til værdier der er i brug</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -603,7 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -630,7 +632,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
@@ -644,6 +645,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Farve2" xfId="4" builtinId="34"/>
@@ -931,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,20 +1019,20 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -1037,7 +1043,7 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="27"/>
@@ -1058,14 +1064,14 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="24"/>
       <c r="F6" s="17"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="40"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="20"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="28"/>
@@ -1100,16 +1106,16 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="62" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="19"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="26"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1121,7 +1127,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="62" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="20"/>
@@ -1141,7 +1147,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -1152,11 +1158,11 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
@@ -1165,7 +1171,7 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="31"/>
@@ -1175,9 +1181,9 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
@@ -1186,7 +1192,7 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="62" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="31"/>
@@ -1196,9 +1202,9 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
@@ -1207,7 +1213,7 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="62" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="31"/>
@@ -1215,7 +1221,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="41"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
@@ -1228,7 +1234,7 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="31"/>
@@ -1249,7 +1255,7 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29"/>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="62" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="31"/>
@@ -1257,10 +1263,10 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="35"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
@@ -1270,7 +1276,7 @@
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="29"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="31"/>
@@ -1278,18 +1284,18 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="31"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
@@ -1309,10 +1315,12 @@
       <c r="R17" s="31"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1322,7 +1330,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -1331,7 +1339,7 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="8"/>
@@ -1339,11 +1347,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="46"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -1352,7 +1360,7 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="62" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="8"/>
@@ -1361,10 +1369,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -1373,7 +1381,7 @@
     </row>
     <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="8"/>
@@ -1384,9 +1392,9 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="58"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -1394,7 +1402,7 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="8"/>
@@ -1406,16 +1414,16 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="45"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="44"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="8"/>
@@ -1427,16 +1435,16 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="58"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8"/>
@@ -1448,16 +1456,16 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="45"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="44"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="8"/>
@@ -1469,10 +1477,10 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="45"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="44"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>

--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6072"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -549,6 +549,19 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -573,9 +586,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
@@ -583,8 +593,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
@@ -650,6 +658,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Farve2" xfId="4" builtinId="34"/>
@@ -935,25 +946,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="28.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -961,699 +972,605 @@
         <f>36</f>
         <v>36</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f>37</f>
         <v>37</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <f>38</f>
         <v>38</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>39</f>
         <v>39</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f>40</f>
         <v>40</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f>41</f>
         <v>41</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <f>42</f>
         <v>42</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f>43</f>
         <v>43</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <f>44</f>
         <v>44</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <f>45</f>
         <v>45</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <f>47</f>
         <v>47</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <f>48</f>
         <v>48</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <f>49</f>
         <v>49</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <f>50</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="S3" s="4">
+        <v>51</v>
+      </c>
+      <c r="T3" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="35"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="24"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="13"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="25"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="62" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="26"/>
+      <c r="C11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="62" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="26"/>
+      <c r="C12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="62" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="26"/>
+      <c r="C13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="62" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="26"/>
+      <c r="C14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="62" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="26"/>
+      <c r="C15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="41" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="26"/>
+      <c r="C16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-    </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+    </row>
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+    </row>
+    <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+    </row>
+    <row r="21" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+    </row>
+    <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+    </row>
+    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+    </row>
+    <row r="25" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
